--- a/data/trans_dic/P5_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P5_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de azotea en su vivienda</t>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,23%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>12,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>17,05%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>15,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>14,7%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,66; 18,93</t>
+          <t>8,22; 18,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,75; 19,52</t>
+          <t>8,29; 18,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,0; 21,18</t>
+          <t>12,49; 22,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,96; 21,24</t>
+          <t>11,74; 21,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,02; 18,44</t>
+          <t>11,3; 18,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,25; 18,82</t>
+          <t>11,04; 18,28</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>35,42%</t>
+          <t>36,05%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,29%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>32,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>32,97%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,53; 39,9</t>
+          <t>27,61; 44,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,39; 44,76</t>
+          <t>28,25; 45,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,91; 34,36</t>
+          <t>24,26; 38,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,83; 34,26</t>
+          <t>23,65; 37,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,87; 34,92</t>
+          <t>27,43; 38,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,6; 36,97</t>
+          <t>27,4; 38,59</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>52,17%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>45,21%</t>
+          <t>51,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,65%</t>
+          <t>43,2%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>42,87%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,38; 47,28</t>
+          <t>14,13; 57,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,73; 46,86</t>
+          <t>13,37; 56,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,9; 58,61</t>
+          <t>36,69; 68,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33,43; 58,09</t>
+          <t>36,02; 68,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,79; 48,36</t>
+          <t>26,46; 56,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,25; 48,06</t>
+          <t>25,62; 55,77</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,99%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,06%</t>
+          <t>24,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>25,92%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>25,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>24,06%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>25,11%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,88</t>
+          <t>19,62; 29,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,25; 29,76</t>
+          <t>19,97; 30,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,11; 27,53</t>
+          <t>21,69; 30,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,08; 27,62</t>
+          <t>21,02; 30,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,56; 26,49</t>
+          <t>22,24; 28,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,9; 27,24</t>
+          <t>22,36; 28,7</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -921,4 +929,595 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de azotea en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>45928</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55770</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>74210</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>82261</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>120138</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>138032</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30069; 66366</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35669; 80740</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54365; 99872</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>59735; 111103</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>90530; 148843</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>103656; 171673</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>107292</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>129574</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>107732</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>129188</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>215025</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>258762</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>84137; 135054</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>101513; 163413</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>84935; 133617</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>100598; 160507</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>179621; 251816</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>215025; 302816</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>29230</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34707</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>43100</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>52285</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>72330</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>86992</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11989; 48594</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13607; 57957</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30308; 56718</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>36441; 69512</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>44304; 93830</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51993; 113170</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>180.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>182450</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>220051</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>225043</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>263734</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>407493</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>483785</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>148155; 224378</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>177949; 270097</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>188315; 264234</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>217625; 310666</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>360969; 467777</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>430713; 552897</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>